--- a/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 20211.xlsx
+++ b/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>Mat</t>
   </si>
@@ -83,6 +83,39 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>NANCY PAOLA</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>MICHELLE GUADALUPE</t>
   </si>
 </sst>
 </file>
@@ -486,16 +519,19 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>70.97</v>
+      </c>
+      <c r="H2">
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -509,16 +545,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>80.56</v>
+      </c>
+      <c r="H3">
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -532,16 +571,19 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>79.06999999999999</v>
+      </c>
+      <c r="H4">
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -555,16 +597,19 @@
         <v>44</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>86.36</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -578,16 +623,19 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>87.5</v>
+      </c>
+      <c r="H6">
+        <v>7.1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -601,16 +649,19 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>88.45999999999999</v>
+      </c>
+      <c r="H7">
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +720,7 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -692,7 +743,7 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -715,7 +766,7 @@
         <v>43</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -738,7 +789,7 @@
         <v>44</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -761,7 +812,7 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -784,7 +835,7 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -846,16 +897,19 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>70.97</v>
+      </c>
+      <c r="H2">
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -869,16 +923,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>80.56</v>
+      </c>
+      <c r="H3">
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -892,16 +949,19 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>79.06999999999999</v>
+      </c>
+      <c r="H4">
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -915,16 +975,19 @@
         <v>44</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>86.36</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -938,16 +1001,19 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>87.5</v>
+      </c>
+      <c r="H6">
+        <v>7.1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -961,16 +1027,19 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>88.45999999999999</v>
+      </c>
+      <c r="H7">
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1013,6 +1082,98 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920288</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920327</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920243</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 20211.xlsx
+++ b/docentes/Rosas Aguilar Claudia Leonor - Estadisticos 20211.xlsx
@@ -594,22 +594,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>38</v>
       </c>
       <c r="G5">
-        <v>86.36</v>
+        <v>88.37</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -783,13 +783,13 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -972,22 +972,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>38</v>
       </c>
       <c r="G5">
-        <v>86.36</v>
+        <v>88.37</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
